--- a/testData/WebsitesDevelopedNegative.xlsx
+++ b/testData/WebsitesDevelopedNegative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2457173_cognizant_com/Documents/Desktop/Training/Project Automation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2457173\IdeaProjects\PentagonProfileStats\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC1048C3F19C72185BDE5903" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C4043EA-F67E-4CC7-8402-DBCF6464C366}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6C8682-5DC3-475F-85F9-2ADA7EDA7F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>five</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>சாய்</t>
+  </si>
+  <si>
+    <t>values</t>
   </si>
 </sst>
 </file>
@@ -63,12 +66,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,7 +93,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -93,6 +102,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -376,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -388,38 +400,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{046C17B4-BA0A-4D95-B0E2-2D070DCBE108}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{046C17B4-BA0A-4D95-B0E2-2D070DCBE108}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
